--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N2">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q2">
-        <v>8.562005467584015</v>
+        <v>16.07940912216222</v>
       </c>
       <c r="R2">
-        <v>8.562005467584015</v>
+        <v>144.71468209946</v>
       </c>
       <c r="S2">
-        <v>0.007245557573267046</v>
+        <v>0.01094570203430621</v>
       </c>
       <c r="T2">
-        <v>0.007245557573267046</v>
+        <v>0.01094570203430622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N3">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q3">
-        <v>189.7012986250822</v>
+        <v>195.7686057484911</v>
       </c>
       <c r="R3">
-        <v>189.7012986250822</v>
+        <v>1761.91745173642</v>
       </c>
       <c r="S3">
-        <v>0.1605338476032771</v>
+        <v>0.1332651473642212</v>
       </c>
       <c r="T3">
-        <v>0.1605338476032771</v>
+        <v>0.1332651473642212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N4">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q4">
-        <v>133.9752557878158</v>
+        <v>176.1558615123511</v>
       </c>
       <c r="R4">
-        <v>133.9752557878158</v>
+        <v>1585.40275361116</v>
       </c>
       <c r="S4">
-        <v>0.1133759412884039</v>
+        <v>0.1199142056192314</v>
       </c>
       <c r="T4">
-        <v>0.1133759412884039</v>
+        <v>0.1199142056192314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H5">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I5">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J5">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N5">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q5">
-        <v>3.296360025582533</v>
+        <v>6.021772336324446</v>
       </c>
       <c r="R5">
-        <v>3.296360025582533</v>
+        <v>54.19595102692001</v>
       </c>
       <c r="S5">
-        <v>0.00278952944353979</v>
+        <v>0.004099188297969747</v>
       </c>
       <c r="T5">
-        <v>0.00278952944353979</v>
+        <v>0.004099188297969748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N6">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q6">
-        <v>73.03473233651957</v>
+        <v>73.31575218098224</v>
       </c>
       <c r="R6">
-        <v>73.03473233651957</v>
+        <v>659.8417696288401</v>
       </c>
       <c r="S6">
-        <v>0.06180530484310957</v>
+        <v>0.04990807632899855</v>
       </c>
       <c r="T6">
-        <v>0.06180530484310957</v>
+        <v>0.04990807632899855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N7">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O7">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P7">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q7">
-        <v>51.58028446351461</v>
+        <v>65.97073845670224</v>
       </c>
       <c r="R7">
-        <v>51.58028446351461</v>
+        <v>593.7366461103202</v>
       </c>
       <c r="S7">
-        <v>0.04364957744313886</v>
+        <v>0.04490812073031621</v>
       </c>
       <c r="T7">
-        <v>0.04364957744313886</v>
+        <v>0.04490812073031623</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H8">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I8">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J8">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N8">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O8">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P8">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q8">
-        <v>16.76200768075691</v>
+        <v>35.02282723386711</v>
       </c>
       <c r="R8">
-        <v>16.76200768075691</v>
+        <v>315.205445104804</v>
       </c>
       <c r="S8">
-        <v>0.01418477156482578</v>
+        <v>0.02384101482762352</v>
       </c>
       <c r="T8">
-        <v>0.01418477156482578</v>
+        <v>0.02384101482762352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H9">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I9">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J9">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N9">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O9">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P9">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q9">
-        <v>371.3819894932209</v>
+        <v>426.4068414985675</v>
       </c>
       <c r="R9">
-        <v>371.3819894932209</v>
+        <v>3837.661573487107</v>
       </c>
       <c r="S9">
-        <v>0.3142802929448357</v>
+        <v>0.2902670239293804</v>
       </c>
       <c r="T9">
-        <v>0.3142802929448357</v>
+        <v>0.2902670239293804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H10">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I10">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J10">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N10">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O10">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P10">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q10">
-        <v>262.2860117351009</v>
+        <v>383.6879985519315</v>
       </c>
       <c r="R10">
-        <v>262.2860117351009</v>
+        <v>3453.191986967384</v>
       </c>
       <c r="S10">
-        <v>0.2219583257549026</v>
+        <v>0.2611871166646459</v>
       </c>
       <c r="T10">
-        <v>0.2219583257549026</v>
+        <v>0.2611871166646461</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H11">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I11">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J11">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N11">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O11">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P11">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q11">
-        <v>1.83256174350466</v>
+        <v>3.754006538276667</v>
       </c>
       <c r="R11">
-        <v>1.83256174350466</v>
+        <v>33.78605884449</v>
       </c>
       <c r="S11">
-        <v>0.001550796909602576</v>
+        <v>0.002555456900849618</v>
       </c>
       <c r="T11">
-        <v>0.001550796909602576</v>
+        <v>0.002555456900849619</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H12">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I12">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J12">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N12">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O12">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P12">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q12">
-        <v>40.6025602143856</v>
+        <v>45.70544977030334</v>
       </c>
       <c r="R12">
-        <v>40.6025602143856</v>
+        <v>411.34904793273</v>
       </c>
       <c r="S12">
-        <v>0.03435972901082314</v>
+        <v>0.03111297378708756</v>
       </c>
       <c r="T12">
-        <v>0.03435972901082314</v>
+        <v>0.03111297378708757</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H13">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I13">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J13">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N13">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O13">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P13">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q13">
-        <v>28.67528282509747</v>
+        <v>41.12652715339334</v>
       </c>
       <c r="R13">
-        <v>28.67528282509747</v>
+        <v>370.1387443805401</v>
       </c>
       <c r="S13">
-        <v>0.02426632562027392</v>
+        <v>0.02799597351536968</v>
       </c>
       <c r="T13">
-        <v>0.02426632562027392</v>
+        <v>0.02799597351536969</v>
       </c>
     </row>
   </sheetData>
